--- a/Monster Data.xlsx
+++ b/Monster Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus Runde\Desktop\git repositories\MonsterHunterSoP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D161888-542B-4BFB-B9A8-F7E54BAB0210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792ED7B5-9F78-4C01-8F85-8BF74881D319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2834,11 +2834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+      <selection activeCell="A174" sqref="A174:E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2864,7 +2863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>286</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>267</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>404</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>400</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>403</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>401</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>402</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>295</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>262</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>249</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>252</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>265</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>234</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>162</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>296</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>406</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>283</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>217</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -4632,7 +4631,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>218</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>251</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>276</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>278</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>93</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>64</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>214</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>165</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>75</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>76</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>113</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>287</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>57</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>77</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>68</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>67</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>114</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>208</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>109</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>299</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>236</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>94</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>297</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>193</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -5533,7 +5532,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>228</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>259</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>282</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -5635,211 +5634,211 @@
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="B165" t="s">
         <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>657</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="D166" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E166" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>660</v>
+        <v>317</v>
       </c>
       <c r="D167" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="E167" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="D168" t="s">
-        <v>22</v>
+        <v>652</v>
       </c>
       <c r="E168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
       </c>
       <c r="C169" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D169" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E169" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
       </c>
       <c r="C170" t="s">
-        <v>317</v>
+        <v>691</v>
       </c>
       <c r="D170" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="E170" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="D171" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
       </c>
       <c r="C172" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="D172" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="E172" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
       </c>
       <c r="C173" t="s">
-        <v>691</v>
+        <v>627</v>
       </c>
       <c r="D173" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="E173" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
       </c>
       <c r="C174" t="s">
-        <v>693</v>
+        <v>317</v>
       </c>
       <c r="D174" t="s">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="E174" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
       </c>
       <c r="C175" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="D175" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="E175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s">
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="D176" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="E176" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>405</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>136</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>170</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>243</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>240</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>221</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>133</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>54</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>229</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -6162,7 +6161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>63</v>
       </c>
@@ -6179,7 +6178,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>232</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>181</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>275</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>92</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>53</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>59</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -6298,7 +6297,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>196</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>128</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>300</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>242</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>36</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>102</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>116</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>132</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>156</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>157</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>167</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>199</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>216</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>263</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>124</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>171</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>220</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>202</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>301</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>302</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>126</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>164</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>147</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>190</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>246</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>303</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>179</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>271</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>105</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>178</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>111</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>61</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>305</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>31</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>143</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>160</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -7165,7 +7164,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>231</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>230</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>90</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>89</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>88</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>112</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>72</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>71</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>154</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>197</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>137</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>215</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>184</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>256</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>189</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>241</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>206</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>209</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>203</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>204</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>47</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>79</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>210</v>
       </c>
@@ -7658,15 +7657,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:E285" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="?"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E285">
       <sortCondition ref="B2:B285"/>
     </sortState>

--- a/Monster Data.xlsx
+++ b/Monster Data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus Runde\Desktop\git repositories\MonsterHunterSoP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792ED7B5-9F78-4C01-8F85-8BF74881D319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6146F49F-7FCE-41DB-8350-53947A141E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="2004" windowWidth="13020" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$283</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="844">
   <si>
     <t>name</t>
   </si>
@@ -2517,6 +2517,60 @@
   </si>
   <si>
     <t>White Fatalis covered in luminous white scales, and a line of fur runs down its back and tail. Its horns are antler-like in nature, and the structure of its head is significantly less reptilian than that of its counterparts. Like Kirin, the coat of a White Fatalis produces a bright white aura. When enraged, the throat and chest of the White Fatalis glow a menacing red and becomes surrounded with red lightning sparks.</t>
+  </si>
+  <si>
+    <t>roar</t>
+  </si>
+  <si>
+    <t>Barroth (new)</t>
+  </si>
+  <si>
+    <t>Barroth (old)</t>
+  </si>
+  <si>
+    <t>Uragaan (new)</t>
+  </si>
+  <si>
+    <t>Uragaan (old)</t>
+  </si>
+  <si>
+    <t>Kirin (new)</t>
+  </si>
+  <si>
+    <t>Kirin (old)</t>
+  </si>
+  <si>
+    <t>Kushala Daora (new)</t>
+  </si>
+  <si>
+    <t>Kushala Daora (old)</t>
+  </si>
+  <si>
+    <t>Fatalis (new)</t>
+  </si>
+  <si>
+    <t>Fatalis (old)</t>
+  </si>
+  <si>
+    <t>Barioth (new)</t>
+  </si>
+  <si>
+    <t>Barioth (old)</t>
+  </si>
+  <si>
+    <t>Tigrex (new)</t>
+  </si>
+  <si>
+    <t>Tigrex (old)</t>
+  </si>
+  <si>
+    <t>Nargacuga (new)</t>
+  </si>
+  <si>
+    <t>Nargacuga (old)</t>
+  </si>
+  <si>
+    <t>ideas</t>
   </si>
 </sst>
 </file>
@@ -2834,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:E176"/>
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2846,7 +2900,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2862,8 +2916,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>286</v>
       </c>
@@ -2879,8 +2939,11 @@
       <c r="E2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2896,8 +2959,11 @@
       <c r="E3" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2913,8 +2979,11 @@
       <c r="E4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -2930,8 +2999,11 @@
       <c r="E5" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -2947,8 +3019,11 @@
       <c r="E6" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -2964,8 +3039,11 @@
       <c r="E7" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -2981,8 +3059,11 @@
       <c r="E8" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2998,8 +3079,11 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3015,8 +3099,11 @@
       <c r="E10" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3032,8 +3119,11 @@
       <c r="E11" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -3049,8 +3139,11 @@
       <c r="E12" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -3066,8 +3159,11 @@
       <c r="E13" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -3083,8 +3179,11 @@
       <c r="E14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -3100,8 +3199,11 @@
       <c r="E15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -3117,8 +3219,11 @@
       <c r="E16" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -3134,8 +3239,11 @@
       <c r="E17" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -3151,8 +3259,11 @@
       <c r="E18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -3168,8 +3279,11 @@
       <c r="E19" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3185,8 +3299,11 @@
       <c r="E20" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -3202,8 +3319,11 @@
       <c r="E21" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -3219,8 +3339,11 @@
       <c r="E22" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -3236,8 +3359,11 @@
       <c r="E23" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -3253,8 +3379,11 @@
       <c r="E24" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -3270,8 +3399,11 @@
       <c r="E25" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -3287,8 +3419,11 @@
       <c r="E26" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -3304,8 +3439,11 @@
       <c r="E27" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -3321,8 +3459,11 @@
       <c r="E28" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>267</v>
       </c>
@@ -3338,8 +3479,11 @@
       <c r="E29" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -3355,8 +3499,11 @@
       <c r="E30" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -3372,8 +3519,11 @@
       <c r="E31" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -3389,8 +3539,11 @@
       <c r="E32" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -3406,8 +3559,11 @@
       <c r="E33" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -3423,8 +3579,11 @@
       <c r="E34" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -3440,8 +3599,11 @@
       <c r="E35" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -3457,8 +3619,11 @@
       <c r="E36" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -3474,8 +3639,11 @@
       <c r="E37" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -3491,8 +3659,11 @@
       <c r="E38" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>404</v>
       </c>
@@ -3508,8 +3679,11 @@
       <c r="E39" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>400</v>
       </c>
@@ -3525,8 +3699,11 @@
       <c r="E40" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>403</v>
       </c>
@@ -3542,8 +3719,11 @@
       <c r="E41" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>401</v>
       </c>
@@ -3559,8 +3739,11 @@
       <c r="E42" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>402</v>
       </c>
@@ -3576,8 +3759,11 @@
       <c r="E43" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -3593,8 +3779,11 @@
       <c r="E44" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -3610,8 +3799,11 @@
       <c r="E45" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3819,11 @@
       <c r="E46" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3644,8 +3839,11 @@
       <c r="E47" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -3661,8 +3859,11 @@
       <c r="E48" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3678,8 +3879,11 @@
       <c r="E49" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3695,8 +3899,11 @@
       <c r="E50" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -3712,8 +3919,11 @@
       <c r="E51" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3729,8 +3939,11 @@
       <c r="E52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>295</v>
       </c>
@@ -3746,8 +3959,11 @@
       <c r="E53" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3763,8 +3979,11 @@
       <c r="E54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -3780,8 +3999,11 @@
       <c r="E55" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -3797,8 +4019,11 @@
       <c r="E56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -3814,8 +4039,11 @@
       <c r="E57" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -3831,8 +4059,11 @@
       <c r="E58" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3848,8 +4079,11 @@
       <c r="E59" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -3865,8 +4099,11 @@
       <c r="E60" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -3882,8 +4119,11 @@
       <c r="E61" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>262</v>
       </c>
@@ -3899,8 +4139,11 @@
       <c r="E62" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -3916,8 +4159,11 @@
       <c r="E63" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -3933,8 +4179,11 @@
       <c r="E64" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -3950,8 +4199,11 @@
       <c r="E65" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3967,8 +4219,11 @@
       <c r="E66" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -3984,8 +4239,11 @@
       <c r="E67" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>249</v>
       </c>
@@ -4001,8 +4259,11 @@
       <c r="E68" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4018,8 +4279,11 @@
       <c r="E69" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -4035,8 +4299,11 @@
       <c r="E70" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>252</v>
       </c>
@@ -4052,8 +4319,11 @@
       <c r="E71" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -4069,8 +4339,11 @@
       <c r="E72" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -4086,8 +4359,11 @@
       <c r="E73" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -4103,8 +4379,11 @@
       <c r="E74" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -4120,8 +4399,11 @@
       <c r="E75" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -4137,8 +4419,11 @@
       <c r="E76" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4154,8 +4439,11 @@
       <c r="E77" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -4171,8 +4459,11 @@
       <c r="E78" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -4188,8 +4479,11 @@
       <c r="E79" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -4205,8 +4499,11 @@
       <c r="E80" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -4222,8 +4519,11 @@
       <c r="E81" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -4239,8 +4539,11 @@
       <c r="E82" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -4256,8 +4559,11 @@
       <c r="E83" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>265</v>
       </c>
@@ -4273,8 +4579,11 @@
       <c r="E84" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -4290,8 +4599,11 @@
       <c r="E85" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -4307,8 +4619,11 @@
       <c r="E86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>234</v>
       </c>
@@ -4324,8 +4639,11 @@
       <c r="E87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -4341,8 +4659,11 @@
       <c r="E88" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -4358,8 +4679,11 @@
       <c r="E89" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -4375,8 +4699,11 @@
       <c r="E90" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>162</v>
       </c>
@@ -4392,8 +4719,11 @@
       <c r="E91" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -4409,8 +4739,11 @@
       <c r="E92" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4426,8 +4759,11 @@
       <c r="E93" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>296</v>
       </c>
@@ -4443,8 +4779,11 @@
       <c r="E94" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -4460,8 +4799,11 @@
       <c r="E95" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>406</v>
       </c>
@@ -4477,8 +4819,11 @@
       <c r="E96" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -4494,8 +4839,11 @@
       <c r="E97" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -4511,8 +4859,11 @@
       <c r="E98" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -4528,8 +4879,11 @@
       <c r="E99" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -4545,8 +4899,11 @@
       <c r="E100" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -4562,8 +4919,11 @@
       <c r="E101" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>283</v>
       </c>
@@ -4579,8 +4939,11 @@
       <c r="E102" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -4596,8 +4959,11 @@
       <c r="E103" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>217</v>
       </c>
@@ -4613,8 +4979,11 @@
       <c r="E104" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -4630,8 +4999,11 @@
       <c r="E105" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -4647,8 +5019,11 @@
       <c r="E106" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>218</v>
       </c>
@@ -4664,8 +5039,11 @@
       <c r="E107" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>251</v>
       </c>
@@ -4681,8 +5059,11 @@
       <c r="E108" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -4698,8 +5079,11 @@
       <c r="E109" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -4715,8 +5099,11 @@
       <c r="E110" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4732,8 +5119,11 @@
       <c r="E111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>276</v>
       </c>
@@ -4749,8 +5139,11 @@
       <c r="E112" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -4766,8 +5159,11 @@
       <c r="E113" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -4783,8 +5179,11 @@
       <c r="E114" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -4800,8 +5199,11 @@
       <c r="E115" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>278</v>
       </c>
@@ -4817,8 +5219,11 @@
       <c r="E116" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -4834,8 +5239,11 @@
       <c r="E117" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -4851,8 +5259,11 @@
       <c r="E118" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>80</v>
       </c>
@@ -4868,8 +5279,11 @@
       <c r="E119" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>274</v>
       </c>
@@ -4885,8 +5299,11 @@
       <c r="E120" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>93</v>
       </c>
@@ -4902,8 +5319,11 @@
       <c r="E121" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -4919,8 +5339,11 @@
       <c r="E122" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>64</v>
       </c>
@@ -4936,8 +5359,11 @@
       <c r="E123" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -4953,8 +5379,11 @@
       <c r="E124" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -4970,8 +5399,11 @@
       <c r="E125" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -4987,8 +5419,11 @@
       <c r="E126" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -5004,8 +5439,11 @@
       <c r="E127" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>214</v>
       </c>
@@ -5021,8 +5459,11 @@
       <c r="E128" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>165</v>
       </c>
@@ -5038,8 +5479,11 @@
       <c r="E129" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -5055,8 +5499,11 @@
       <c r="E130" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -5072,8 +5519,11 @@
       <c r="E131" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>75</v>
       </c>
@@ -5089,8 +5539,11 @@
       <c r="E132" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>76</v>
       </c>
@@ -5106,8 +5559,11 @@
       <c r="E133" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -5123,8 +5579,11 @@
       <c r="E134" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>113</v>
       </c>
@@ -5140,8 +5599,11 @@
       <c r="E135" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -5157,8 +5619,11 @@
       <c r="E136" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>287</v>
       </c>
@@ -5174,8 +5639,11 @@
       <c r="E137" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -5191,8 +5659,11 @@
       <c r="E138" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -5208,8 +5679,11 @@
       <c r="E139" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>57</v>
       </c>
@@ -5225,8 +5699,11 @@
       <c r="E140" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>77</v>
       </c>
@@ -5242,8 +5719,11 @@
       <c r="E141" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>68</v>
       </c>
@@ -5259,8 +5739,11 @@
       <c r="E142" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>67</v>
       </c>
@@ -5276,8 +5759,11 @@
       <c r="E143" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>114</v>
       </c>
@@ -5293,8 +5779,11 @@
       <c r="E144" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -5310,8 +5799,11 @@
       <c r="E145" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>208</v>
       </c>
@@ -5327,8 +5819,11 @@
       <c r="E146" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>109</v>
       </c>
@@ -5344,8 +5839,11 @@
       <c r="E147" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>299</v>
       </c>
@@ -5361,8 +5859,11 @@
       <c r="E148" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>236</v>
       </c>
@@ -5378,8 +5879,11 @@
       <c r="E149" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>94</v>
       </c>
@@ -5395,8 +5899,11 @@
       <c r="E150" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -5412,8 +5919,11 @@
       <c r="E151" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>297</v>
       </c>
@@ -5429,8 +5939,11 @@
       <c r="E152" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5446,8 +5959,11 @@
       <c r="E153" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -5463,8 +5979,11 @@
       <c r="E154" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>193</v>
       </c>
@@ -5480,8 +5999,11 @@
       <c r="E155" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -5497,8 +6019,11 @@
       <c r="E156" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -5514,8 +6039,11 @@
       <c r="E157" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -5531,8 +6059,11 @@
       <c r="E158" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>228</v>
       </c>
@@ -5548,8 +6079,11 @@
       <c r="E159" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>259</v>
       </c>
@@ -5565,8 +6099,11 @@
       <c r="E160" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -5582,8 +6119,11 @@
       <c r="E161" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>282</v>
       </c>
@@ -5599,8 +6139,11 @@
       <c r="E162" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -5616,8 +6159,11 @@
       <c r="E163" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -5633,8 +6179,11 @@
       <c r="E164" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -5650,8 +6199,11 @@
       <c r="E165" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>261</v>
       </c>
@@ -5667,59 +6219,71 @@
       <c r="E166" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>317</v>
+        <v>651</v>
       </c>
       <c r="D167" t="s">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="E167" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D168" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E168" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
       </c>
       <c r="C169" t="s">
-        <v>653</v>
+        <v>317</v>
       </c>
       <c r="D169" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="E169" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>103</v>
       </c>
@@ -5735,8 +6299,11 @@
       <c r="E170" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>106</v>
       </c>
@@ -5752,8 +6319,11 @@
       <c r="E171" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>158</v>
       </c>
@@ -5769,8 +6339,11 @@
       <c r="E172" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>213</v>
       </c>
@@ -5786,8 +6359,11 @@
       <c r="E173" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>121</v>
       </c>
@@ -5803,8 +6379,11 @@
       <c r="E174" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>122</v>
       </c>
@@ -5820,8 +6399,11 @@
       <c r="E175" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>44</v>
       </c>
@@ -5837,8 +6419,11 @@
       <c r="E176" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -5854,8 +6439,11 @@
       <c r="E177" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -5871,8 +6459,11 @@
       <c r="E178" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -5888,8 +6479,11 @@
       <c r="E179" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>405</v>
       </c>
@@ -5905,8 +6499,11 @@
       <c r="E180" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -5922,8 +6519,11 @@
       <c r="E181" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>136</v>
       </c>
@@ -5939,8 +6539,11 @@
       <c r="E182" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>170</v>
       </c>
@@ -5956,8 +6559,11 @@
       <c r="E183" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>243</v>
       </c>
@@ -5973,8 +6579,11 @@
       <c r="E184" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -5990,8 +6599,11 @@
       <c r="E185" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>240</v>
       </c>
@@ -6007,8 +6619,11 @@
       <c r="E186" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -6024,8 +6639,11 @@
       <c r="E187" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -6041,8 +6659,11 @@
       <c r="E188" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -6058,8 +6679,11 @@
       <c r="E189" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>221</v>
       </c>
@@ -6075,8 +6699,11 @@
       <c r="E190" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>133</v>
       </c>
@@ -6092,8 +6719,11 @@
       <c r="E191" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>54</v>
       </c>
@@ -6109,8 +6739,11 @@
       <c r="E192" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -6126,8 +6759,11 @@
       <c r="E193" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>229</v>
       </c>
@@ -6143,8 +6779,11 @@
       <c r="E194" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -6160,8 +6799,11 @@
       <c r="E195" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>63</v>
       </c>
@@ -6177,8 +6819,11 @@
       <c r="E196" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>232</v>
       </c>
@@ -6194,8 +6839,11 @@
       <c r="E197" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>181</v>
       </c>
@@ -6211,8 +6859,11 @@
       <c r="E198" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>275</v>
       </c>
@@ -6228,8 +6879,11 @@
       <c r="E199" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>92</v>
       </c>
@@ -6245,8 +6899,11 @@
       <c r="E200" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>53</v>
       </c>
@@ -6262,8 +6919,11 @@
       <c r="E201" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>59</v>
       </c>
@@ -6279,8 +6939,11 @@
       <c r="E202" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -6296,8 +6959,11 @@
       <c r="E203" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>196</v>
       </c>
@@ -6313,8 +6979,11 @@
       <c r="E204" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>128</v>
       </c>
@@ -6330,8 +6999,11 @@
       <c r="E205" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>96</v>
       </c>
@@ -6347,8 +7019,11 @@
       <c r="E206" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -6364,8 +7039,11 @@
       <c r="E207" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>300</v>
       </c>
@@ -6381,8 +7059,11 @@
       <c r="E208" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>242</v>
       </c>
@@ -6398,8 +7079,11 @@
       <c r="E209" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -6415,8 +7099,11 @@
       <c r="E210" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>36</v>
       </c>
@@ -6432,8 +7119,11 @@
       <c r="E211" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -6449,8 +7139,11 @@
       <c r="E212" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -6466,8 +7159,11 @@
       <c r="E213" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>102</v>
       </c>
@@ -6483,8 +7179,11 @@
       <c r="E214" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>116</v>
       </c>
@@ -6500,8 +7199,11 @@
       <c r="E215" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>132</v>
       </c>
@@ -6517,8 +7219,11 @@
       <c r="E216" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>156</v>
       </c>
@@ -6534,8 +7239,11 @@
       <c r="E217" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>157</v>
       </c>
@@ -6551,8 +7259,11 @@
       <c r="E218" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>167</v>
       </c>
@@ -6568,8 +7279,11 @@
       <c r="E219" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -6585,8 +7299,11 @@
       <c r="E220" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -6602,8 +7319,11 @@
       <c r="E221" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>199</v>
       </c>
@@ -6619,8 +7339,11 @@
       <c r="E222" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>216</v>
       </c>
@@ -6636,8 +7359,11 @@
       <c r="E223" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -6653,8 +7379,11 @@
       <c r="E224" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>263</v>
       </c>
@@ -6670,8 +7399,11 @@
       <c r="E225" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -6687,8 +7419,11 @@
       <c r="E226" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>124</v>
       </c>
@@ -6704,8 +7439,11 @@
       <c r="E227" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>171</v>
       </c>
@@ -6721,8 +7459,11 @@
       <c r="E228" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>220</v>
       </c>
@@ -6738,8 +7479,11 @@
       <c r="E229" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>202</v>
       </c>
@@ -6755,8 +7499,11 @@
       <c r="E230" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>301</v>
       </c>
@@ -6772,8 +7519,11 @@
       <c r="E231" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>302</v>
       </c>
@@ -6789,8 +7539,11 @@
       <c r="E232" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>126</v>
       </c>
@@ -6806,8 +7559,11 @@
       <c r="E233" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>164</v>
       </c>
@@ -6823,8 +7579,11 @@
       <c r="E234" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>147</v>
       </c>
@@ -6840,8 +7599,11 @@
       <c r="E235" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -6857,8 +7619,11 @@
       <c r="E236" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>190</v>
       </c>
@@ -6874,8 +7639,11 @@
       <c r="E237" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>246</v>
       </c>
@@ -6891,8 +7659,11 @@
       <c r="E238" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>303</v>
       </c>
@@ -6908,8 +7679,11 @@
       <c r="E239" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>179</v>
       </c>
@@ -6925,8 +7699,11 @@
       <c r="E240" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>271</v>
       </c>
@@ -6942,8 +7719,11 @@
       <c r="E241" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -6959,8 +7739,11 @@
       <c r="E242" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>105</v>
       </c>
@@ -6976,8 +7759,11 @@
       <c r="E243" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>178</v>
       </c>
@@ -6993,8 +7779,11 @@
       <c r="E244" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -7010,8 +7799,11 @@
       <c r="E245" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>111</v>
       </c>
@@ -7027,8 +7819,11 @@
       <c r="E246" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>61</v>
       </c>
@@ -7044,8 +7839,11 @@
       <c r="E247" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -7061,8 +7859,11 @@
       <c r="E248" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>305</v>
       </c>
@@ -7078,8 +7879,11 @@
       <c r="E249" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>31</v>
       </c>
@@ -7095,8 +7899,11 @@
       <c r="E250" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -7112,8 +7919,11 @@
       <c r="E251" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>143</v>
       </c>
@@ -7129,8 +7939,11 @@
       <c r="E252" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>160</v>
       </c>
@@ -7146,8 +7959,11 @@
       <c r="E253" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -7163,8 +7979,11 @@
       <c r="E254" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -7180,8 +7999,11 @@
       <c r="E255" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -7197,8 +8019,11 @@
       <c r="E256" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>231</v>
       </c>
@@ -7214,8 +8039,11 @@
       <c r="E257" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>230</v>
       </c>
@@ -7231,8 +8059,11 @@
       <c r="E258" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>90</v>
       </c>
@@ -7248,8 +8079,11 @@
       <c r="E259" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>89</v>
       </c>
@@ -7265,8 +8099,11 @@
       <c r="E260" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>88</v>
       </c>
@@ -7282,8 +8119,11 @@
       <c r="E261" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>112</v>
       </c>
@@ -7299,8 +8139,11 @@
       <c r="E262" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>72</v>
       </c>
@@ -7316,8 +8159,11 @@
       <c r="E263" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>71</v>
       </c>
@@ -7333,8 +8179,11 @@
       <c r="E264" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>154</v>
       </c>
@@ -7350,8 +8199,11 @@
       <c r="E265" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -7367,8 +8219,11 @@
       <c r="E266" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -7384,8 +8239,11 @@
       <c r="E267" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>197</v>
       </c>
@@ -7401,8 +8259,11 @@
       <c r="E268" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>137</v>
       </c>
@@ -7418,8 +8279,11 @@
       <c r="E269" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>215</v>
       </c>
@@ -7435,8 +8299,11 @@
       <c r="E270" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>184</v>
       </c>
@@ -7452,8 +8319,11 @@
       <c r="E271" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>256</v>
       </c>
@@ -7469,8 +8339,11 @@
       <c r="E272" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>189</v>
       </c>
@@ -7486,8 +8359,11 @@
       <c r="E273" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>241</v>
       </c>
@@ -7503,8 +8379,11 @@
       <c r="E274" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>206</v>
       </c>
@@ -7520,8 +8399,11 @@
       <c r="E275" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>209</v>
       </c>
@@ -7537,8 +8419,11 @@
       <c r="E276" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>203</v>
       </c>
@@ -7554,8 +8439,11 @@
       <c r="E277" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>204</v>
       </c>
@@ -7571,8 +8459,11 @@
       <c r="E278" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>47</v>
       </c>
@@ -7588,8 +8479,11 @@
       <c r="E279" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>79</v>
       </c>
@@ -7605,8 +8499,11 @@
       <c r="E280" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -7622,8 +8519,11 @@
       <c r="E281" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -7639,8 +8539,11 @@
       <c r="E282" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>210</v>
       </c>
@@ -7656,13 +8559,12 @@
       <c r="E283" t="s">
         <v>309</v>
       </c>
+      <c r="F283" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E285" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E285">
-      <sortCondition ref="B2:B285"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F283" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Monster Data.xlsx
+++ b/Monster Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus Runde\Desktop\git repositories\MonsterHunterSoP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus Runde\Desktop\git repositories\MonsterHunterSoP-mj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6146F49F-7FCE-41DB-8350-53947A141E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB962A47-DE0A-4463-BB14-FB2B7358F8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2004" windowWidth="13020" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="847">
   <si>
     <t>name</t>
   </si>
@@ -2570,7 +2570,16 @@
     <t>Nargacuga (old)</t>
   </si>
   <si>
-    <t>ideas</t>
+    <t>Smash?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -2891,7 +2900,7 @@
   <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2942,6 +2951,9 @@
       <c r="F2" t="s">
         <v>286</v>
       </c>
+      <c r="G2" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2962,6 +2974,9 @@
       <c r="F3" t="s">
         <v>286</v>
       </c>
+      <c r="G3" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2982,6 +2997,9 @@
       <c r="F4" t="s">
         <v>97</v>
       </c>
+      <c r="G4" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3002,6 +3020,9 @@
       <c r="F5" t="s">
         <v>253</v>
       </c>
+      <c r="G5" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3022,6 +3043,9 @@
       <c r="F6" t="s">
         <v>281</v>
       </c>
+      <c r="G6" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3042,6 +3066,9 @@
       <c r="F7" t="s">
         <v>281</v>
       </c>
+      <c r="G7" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3062,6 +3089,9 @@
       <c r="F8" t="s">
         <v>281</v>
       </c>
+      <c r="G8" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3082,6 +3112,9 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
+      <c r="G9" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3102,6 +3135,9 @@
       <c r="F10" t="s">
         <v>62</v>
       </c>
+      <c r="G10" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3122,6 +3158,9 @@
       <c r="F11" t="s">
         <v>134</v>
       </c>
+      <c r="G11" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3142,6 +3181,9 @@
       <c r="F12" t="s">
         <v>134</v>
       </c>
+      <c r="G12" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3162,6 +3204,9 @@
       <c r="F13" t="s">
         <v>117</v>
       </c>
+      <c r="G13" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3182,6 +3227,9 @@
       <c r="F14" t="s">
         <v>117</v>
       </c>
+      <c r="G14" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -3202,6 +3250,9 @@
       <c r="F15" t="s">
         <v>119</v>
       </c>
+      <c r="G15" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3222,8 +3273,11 @@
       <c r="F16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -3242,8 +3296,11 @@
       <c r="F17" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -3262,8 +3319,11 @@
       <c r="F18" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -3282,8 +3342,11 @@
       <c r="F19" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3302,8 +3365,11 @@
       <c r="F20" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -3322,8 +3388,11 @@
       <c r="F21" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -3342,8 +3411,11 @@
       <c r="F22" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -3362,8 +3434,11 @@
       <c r="F23" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -3382,8 +3457,11 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -3402,8 +3480,11 @@
       <c r="F25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -3422,8 +3503,11 @@
       <c r="F26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -3442,8 +3526,11 @@
       <c r="F27" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -3462,8 +3549,11 @@
       <c r="F28" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>267</v>
       </c>
@@ -3482,8 +3572,11 @@
       <c r="F29" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -3502,8 +3595,11 @@
       <c r="F30" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -3522,8 +3618,11 @@
       <c r="F31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -3542,8 +3641,11 @@
       <c r="F32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -3562,8 +3664,11 @@
       <c r="F33" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -3582,8 +3687,11 @@
       <c r="F34" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -3602,8 +3710,11 @@
       <c r="F35" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -3622,8 +3733,11 @@
       <c r="F36" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -3642,8 +3756,11 @@
       <c r="F37" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -3662,8 +3779,11 @@
       <c r="F38" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>404</v>
       </c>
@@ -3682,8 +3802,11 @@
       <c r="F39" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>400</v>
       </c>
@@ -3702,8 +3825,11 @@
       <c r="F40" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>403</v>
       </c>
@@ -3722,8 +3848,11 @@
       <c r="F41" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>401</v>
       </c>
@@ -3742,8 +3871,11 @@
       <c r="F42" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>402</v>
       </c>
@@ -3762,8 +3894,11 @@
       <c r="F43" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -3782,8 +3917,11 @@
       <c r="F44" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -3802,8 +3940,11 @@
       <c r="F45" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3822,8 +3963,11 @@
       <c r="F46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3842,8 +3986,11 @@
       <c r="F47" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -3862,8 +4009,11 @@
       <c r="F48" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3882,8 +4032,11 @@
       <c r="F49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3902,8 +4055,11 @@
       <c r="F50" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -3922,8 +4078,11 @@
       <c r="F51" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3942,8 +4101,11 @@
       <c r="F52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>295</v>
       </c>
@@ -3962,8 +4124,11 @@
       <c r="F53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3982,8 +4147,11 @@
       <c r="F54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -4002,8 +4170,11 @@
       <c r="F55" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -4022,8 +4193,11 @@
       <c r="F56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4042,8 +4216,11 @@
       <c r="F57" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -4062,8 +4239,11 @@
       <c r="F58" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -4082,8 +4262,11 @@
       <c r="F59" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -4102,8 +4285,11 @@
       <c r="F60" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -4122,8 +4308,11 @@
       <c r="F61" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>262</v>
       </c>
@@ -4142,8 +4331,11 @@
       <c r="F62" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -4162,8 +4354,11 @@
       <c r="F63" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -4182,8 +4377,11 @@
       <c r="F64" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -4202,8 +4400,11 @@
       <c r="F65" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -4222,8 +4423,11 @@
       <c r="F66" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -4242,8 +4446,11 @@
       <c r="F67" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>249</v>
       </c>
@@ -4262,8 +4469,11 @@
       <c r="F68" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4282,8 +4492,11 @@
       <c r="F69" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -4302,8 +4515,11 @@
       <c r="F70" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>252</v>
       </c>
@@ -4322,8 +4538,11 @@
       <c r="F71" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -4342,8 +4561,11 @@
       <c r="F72" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -4362,8 +4584,11 @@
       <c r="F73" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -4382,8 +4607,11 @@
       <c r="F74" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -4402,8 +4630,11 @@
       <c r="F75" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -4422,8 +4653,11 @@
       <c r="F76" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4442,8 +4676,11 @@
       <c r="F77" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -4462,8 +4699,11 @@
       <c r="F78" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -4482,8 +4722,11 @@
       <c r="F79" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -4502,8 +4745,11 @@
       <c r="F80" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -4522,8 +4768,11 @@
       <c r="F81" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -4542,8 +4791,11 @@
       <c r="F82" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -4562,8 +4814,11 @@
       <c r="F83" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>265</v>
       </c>
@@ -4582,8 +4837,11 @@
       <c r="F84" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -4602,8 +4860,11 @@
       <c r="F85" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -4622,8 +4883,11 @@
       <c r="F86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>234</v>
       </c>
@@ -4642,8 +4906,11 @@
       <c r="F87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -4662,8 +4929,11 @@
       <c r="F88" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -4682,8 +4952,11 @@
       <c r="F89" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -4702,8 +4975,11 @@
       <c r="F90" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>162</v>
       </c>
@@ -4722,8 +4998,11 @@
       <c r="F91" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -4742,8 +5021,11 @@
       <c r="F92" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4762,8 +5044,11 @@
       <c r="F93" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>296</v>
       </c>
@@ -4782,8 +5067,11 @@
       <c r="F94" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -4802,8 +5090,11 @@
       <c r="F95" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>406</v>
       </c>
@@ -4822,8 +5113,11 @@
       <c r="F96" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -4842,8 +5136,11 @@
       <c r="F97" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -4862,8 +5159,11 @@
       <c r="F98" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -4882,8 +5182,11 @@
       <c r="F99" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -4902,8 +5205,11 @@
       <c r="F100" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -4922,8 +5228,11 @@
       <c r="F101" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>283</v>
       </c>
@@ -4942,8 +5251,11 @@
       <c r="F102" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -4962,8 +5274,11 @@
       <c r="F103" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>217</v>
       </c>
@@ -4982,8 +5297,11 @@
       <c r="F104" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -5002,8 +5320,11 @@
       <c r="F105" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -5022,8 +5343,11 @@
       <c r="F106" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>218</v>
       </c>
@@ -5042,8 +5366,11 @@
       <c r="F107" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>251</v>
       </c>
@@ -5062,8 +5389,11 @@
       <c r="F108" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -5082,8 +5412,11 @@
       <c r="F109" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -5102,8 +5435,11 @@
       <c r="F110" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5122,8 +5458,11 @@
       <c r="F111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>276</v>
       </c>
@@ -5142,8 +5481,11 @@
       <c r="F112" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -5162,8 +5504,11 @@
       <c r="F113" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -5182,8 +5527,11 @@
       <c r="F114" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -5202,8 +5550,11 @@
       <c r="F115" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>278</v>
       </c>
@@ -5222,8 +5573,11 @@
       <c r="F116" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -5242,8 +5596,11 @@
       <c r="F117" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -5262,8 +5619,11 @@
       <c r="F118" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>80</v>
       </c>
@@ -5282,8 +5642,11 @@
       <c r="F119" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>274</v>
       </c>
@@ -5302,8 +5665,11 @@
       <c r="F120" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>93</v>
       </c>
@@ -5322,8 +5688,11 @@
       <c r="F121" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -5342,8 +5711,11 @@
       <c r="F122" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>64</v>
       </c>
@@ -5362,8 +5734,11 @@
       <c r="F123" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -5382,8 +5757,11 @@
       <c r="F124" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -5402,8 +5780,11 @@
       <c r="F125" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -5422,8 +5803,11 @@
       <c r="F126" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -5442,8 +5826,11 @@
       <c r="F127" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>214</v>
       </c>
@@ -5462,8 +5849,11 @@
       <c r="F128" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>165</v>
       </c>
@@ -5482,8 +5872,11 @@
       <c r="F129" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -5502,8 +5895,11 @@
       <c r="F130" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -5522,8 +5918,11 @@
       <c r="F131" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>75</v>
       </c>
@@ -5542,8 +5941,11 @@
       <c r="F132" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>76</v>
       </c>
@@ -5562,8 +5964,11 @@
       <c r="F133" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -5582,8 +5987,11 @@
       <c r="F134" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>113</v>
       </c>
@@ -5602,8 +6010,11 @@
       <c r="F135" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -5622,8 +6033,11 @@
       <c r="F136" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>287</v>
       </c>
@@ -5642,8 +6056,11 @@
       <c r="F137" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -5662,8 +6079,11 @@
       <c r="F138" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -5682,8 +6102,11 @@
       <c r="F139" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>57</v>
       </c>
@@ -5702,8 +6125,11 @@
       <c r="F140" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>77</v>
       </c>
@@ -5722,8 +6148,11 @@
       <c r="F141" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>68</v>
       </c>
@@ -5742,8 +6171,11 @@
       <c r="F142" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>67</v>
       </c>
@@ -5762,8 +6194,11 @@
       <c r="F143" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>114</v>
       </c>
@@ -5782,8 +6217,11 @@
       <c r="F144" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -5802,8 +6240,11 @@
       <c r="F145" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>208</v>
       </c>
@@ -5822,8 +6263,11 @@
       <c r="F146" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>109</v>
       </c>
@@ -5842,8 +6286,11 @@
       <c r="F147" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>299</v>
       </c>
@@ -5862,8 +6309,11 @@
       <c r="F148" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>236</v>
       </c>
@@ -5882,8 +6332,11 @@
       <c r="F149" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>94</v>
       </c>
@@ -5902,8 +6355,11 @@
       <c r="F150" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -5922,8 +6378,11 @@
       <c r="F151" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>297</v>
       </c>
@@ -5942,8 +6401,11 @@
       <c r="F152" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5962,8 +6424,11 @@
       <c r="F153" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -5982,8 +6447,11 @@
       <c r="F154" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>193</v>
       </c>
@@ -6002,8 +6470,11 @@
       <c r="F155" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -6022,8 +6493,11 @@
       <c r="F156" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -6042,8 +6516,11 @@
       <c r="F157" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -6062,8 +6539,11 @@
       <c r="F158" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>228</v>
       </c>
@@ -6082,8 +6562,11 @@
       <c r="F159" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>259</v>
       </c>
@@ -6102,8 +6585,11 @@
       <c r="F160" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -6122,8 +6608,11 @@
       <c r="F161" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>282</v>
       </c>
@@ -6142,8 +6631,11 @@
       <c r="F162" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -6162,8 +6654,11 @@
       <c r="F163" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -6182,8 +6677,11 @@
       <c r="F164" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -6202,8 +6700,11 @@
       <c r="F165" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>261</v>
       </c>
@@ -6222,8 +6723,11 @@
       <c r="F166" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>46</v>
       </c>
@@ -6242,8 +6746,11 @@
       <c r="F167" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>226</v>
       </c>
@@ -6262,8 +6769,11 @@
       <c r="F168" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>107</v>
       </c>
@@ -6282,8 +6792,11 @@
       <c r="F169" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>103</v>
       </c>
@@ -6302,8 +6815,11 @@
       <c r="F170" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>106</v>
       </c>
@@ -6322,8 +6838,11 @@
       <c r="F171" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>158</v>
       </c>
@@ -6342,8 +6861,11 @@
       <c r="F172" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>213</v>
       </c>
@@ -6362,8 +6884,11 @@
       <c r="F173" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>121</v>
       </c>
@@ -6382,8 +6907,11 @@
       <c r="F174" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>122</v>
       </c>
@@ -6402,8 +6930,11 @@
       <c r="F175" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>44</v>
       </c>
@@ -6422,8 +6953,11 @@
       <c r="F176" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -6442,8 +6976,11 @@
       <c r="F177" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -6462,8 +6999,11 @@
       <c r="F178" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -6482,8 +7022,11 @@
       <c r="F179" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>405</v>
       </c>
@@ -6502,8 +7045,11 @@
       <c r="F180" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -6522,8 +7068,11 @@
       <c r="F181" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>136</v>
       </c>
@@ -6542,8 +7091,11 @@
       <c r="F182" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>170</v>
       </c>
@@ -6562,8 +7114,11 @@
       <c r="F183" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>243</v>
       </c>
@@ -6582,8 +7137,11 @@
       <c r="F184" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -6602,8 +7160,11 @@
       <c r="F185" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>240</v>
       </c>
@@ -6622,8 +7183,11 @@
       <c r="F186" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -6642,8 +7206,11 @@
       <c r="F187" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -6662,8 +7229,11 @@
       <c r="F188" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -6682,8 +7252,11 @@
       <c r="F189" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>221</v>
       </c>
@@ -6702,8 +7275,11 @@
       <c r="F190" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>133</v>
       </c>
@@ -6722,8 +7298,11 @@
       <c r="F191" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>54</v>
       </c>
@@ -6742,8 +7321,11 @@
       <c r="F192" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -6762,8 +7344,11 @@
       <c r="F193" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>229</v>
       </c>
@@ -6782,8 +7367,11 @@
       <c r="F194" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -6802,8 +7390,11 @@
       <c r="F195" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>63</v>
       </c>
@@ -6822,8 +7413,11 @@
       <c r="F196" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>232</v>
       </c>
@@ -6842,8 +7436,11 @@
       <c r="F197" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>181</v>
       </c>
@@ -6862,8 +7459,11 @@
       <c r="F198" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>275</v>
       </c>
@@ -6882,8 +7482,11 @@
       <c r="F199" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>92</v>
       </c>
@@ -6902,8 +7505,11 @@
       <c r="F200" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>53</v>
       </c>
@@ -6922,8 +7528,11 @@
       <c r="F201" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>59</v>
       </c>
@@ -6942,8 +7551,11 @@
       <c r="F202" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -6962,8 +7574,11 @@
       <c r="F203" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>196</v>
       </c>
@@ -6982,8 +7597,11 @@
       <c r="F204" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>128</v>
       </c>
@@ -7002,8 +7620,11 @@
       <c r="F205" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>96</v>
       </c>
@@ -7022,8 +7643,11 @@
       <c r="F206" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -7042,8 +7666,11 @@
       <c r="F207" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>300</v>
       </c>
@@ -7062,8 +7689,11 @@
       <c r="F208" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>242</v>
       </c>
@@ -7082,8 +7712,11 @@
       <c r="F209" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -7102,8 +7735,11 @@
       <c r="F210" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>36</v>
       </c>
@@ -7122,8 +7758,11 @@
       <c r="F211" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -7142,8 +7781,11 @@
       <c r="F212" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -7162,8 +7804,11 @@
       <c r="F213" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>102</v>
       </c>
@@ -7182,8 +7827,11 @@
       <c r="F214" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>116</v>
       </c>
@@ -7202,8 +7850,11 @@
       <c r="F215" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>132</v>
       </c>
@@ -7222,8 +7873,11 @@
       <c r="F216" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>156</v>
       </c>
@@ -7242,8 +7896,11 @@
       <c r="F217" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>157</v>
       </c>
@@ -7262,8 +7919,11 @@
       <c r="F218" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>167</v>
       </c>
@@ -7282,8 +7942,11 @@
       <c r="F219" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -7302,8 +7965,11 @@
       <c r="F220" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -7322,8 +7988,11 @@
       <c r="F221" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>199</v>
       </c>
@@ -7342,8 +8011,11 @@
       <c r="F222" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>216</v>
       </c>
@@ -7362,8 +8034,11 @@
       <c r="F223" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -7382,8 +8057,11 @@
       <c r="F224" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>263</v>
       </c>
@@ -7402,8 +8080,11 @@
       <c r="F225" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -7422,8 +8103,11 @@
       <c r="F226" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>124</v>
       </c>
@@ -7442,8 +8126,11 @@
       <c r="F227" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>171</v>
       </c>
@@ -7462,8 +8149,11 @@
       <c r="F228" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>220</v>
       </c>
@@ -7482,8 +8172,11 @@
       <c r="F229" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>202</v>
       </c>
@@ -7502,8 +8195,11 @@
       <c r="F230" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>301</v>
       </c>
@@ -7522,8 +8218,11 @@
       <c r="F231" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>302</v>
       </c>
@@ -7542,8 +8241,11 @@
       <c r="F232" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>126</v>
       </c>
@@ -7562,8 +8264,11 @@
       <c r="F233" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>164</v>
       </c>
@@ -7582,8 +8287,11 @@
       <c r="F234" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>147</v>
       </c>
@@ -7602,8 +8310,11 @@
       <c r="F235" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -7622,8 +8333,11 @@
       <c r="F236" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>190</v>
       </c>
@@ -7642,8 +8356,11 @@
       <c r="F237" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>246</v>
       </c>
@@ -7662,8 +8379,11 @@
       <c r="F238" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>303</v>
       </c>
@@ -7682,8 +8402,11 @@
       <c r="F239" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>179</v>
       </c>
@@ -7702,8 +8425,11 @@
       <c r="F240" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>271</v>
       </c>
@@ -7722,8 +8448,11 @@
       <c r="F241" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -7742,8 +8471,11 @@
       <c r="F242" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>105</v>
       </c>
@@ -7762,8 +8494,11 @@
       <c r="F243" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>178</v>
       </c>
@@ -7782,8 +8517,11 @@
       <c r="F244" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -7802,8 +8540,11 @@
       <c r="F245" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>111</v>
       </c>
@@ -7822,8 +8563,11 @@
       <c r="F246" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>61</v>
       </c>
@@ -7842,8 +8586,11 @@
       <c r="F247" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -7862,8 +8609,11 @@
       <c r="F248" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>305</v>
       </c>
@@ -7882,8 +8632,11 @@
       <c r="F249" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>31</v>
       </c>
@@ -7902,8 +8655,11 @@
       <c r="F250" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -7922,8 +8678,11 @@
       <c r="F251" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>143</v>
       </c>
@@ -7942,8 +8701,11 @@
       <c r="F252" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>160</v>
       </c>
@@ -7962,8 +8724,11 @@
       <c r="F253" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -7982,8 +8747,11 @@
       <c r="F254" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -8002,8 +8770,11 @@
       <c r="F255" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -8022,8 +8793,11 @@
       <c r="F256" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>231</v>
       </c>
@@ -8042,8 +8816,11 @@
       <c r="F257" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>230</v>
       </c>
@@ -8062,8 +8839,11 @@
       <c r="F258" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>90</v>
       </c>
@@ -8082,8 +8862,11 @@
       <c r="F259" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>89</v>
       </c>
@@ -8102,8 +8885,11 @@
       <c r="F260" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>88</v>
       </c>
@@ -8122,8 +8908,11 @@
       <c r="F261" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>112</v>
       </c>
@@ -8142,8 +8931,11 @@
       <c r="F262" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>72</v>
       </c>
@@ -8162,8 +8954,11 @@
       <c r="F263" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>71</v>
       </c>
@@ -8182,8 +8977,11 @@
       <c r="F264" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>154</v>
       </c>
@@ -8202,8 +9000,11 @@
       <c r="F265" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -8222,8 +9023,11 @@
       <c r="F266" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -8242,8 +9046,11 @@
       <c r="F267" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>197</v>
       </c>
@@ -8262,8 +9069,11 @@
       <c r="F268" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>137</v>
       </c>
@@ -8282,8 +9092,11 @@
       <c r="F269" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>215</v>
       </c>
@@ -8302,8 +9115,11 @@
       <c r="F270" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>184</v>
       </c>
@@ -8322,8 +9138,11 @@
       <c r="F271" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>256</v>
       </c>
@@ -8342,8 +9161,11 @@
       <c r="F272" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>189</v>
       </c>
@@ -8362,8 +9184,11 @@
       <c r="F273" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>241</v>
       </c>
@@ -8382,8 +9207,11 @@
       <c r="F274" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>206</v>
       </c>
@@ -8402,8 +9230,11 @@
       <c r="F275" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>209</v>
       </c>
@@ -8422,8 +9253,11 @@
       <c r="F276" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>203</v>
       </c>
@@ -8442,8 +9276,11 @@
       <c r="F277" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>204</v>
       </c>
@@ -8462,8 +9299,11 @@
       <c r="F278" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>47</v>
       </c>
@@ -8482,8 +9322,11 @@
       <c r="F279" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>79</v>
       </c>
@@ -8502,8 +9345,11 @@
       <c r="F280" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -8522,8 +9368,11 @@
       <c r="F281" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -8542,8 +9391,11 @@
       <c r="F282" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>210</v>
       </c>
@@ -8561,6 +9413,9 @@
       </c>
       <c r="F283" t="s">
         <v>309</v>
+      </c>
+      <c r="G283" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
